--- a/资料/大纲.xlsx
+++ b/资料/大纲.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\projects\DouLuoZhiChongShengQianRenXue\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D704B3-5E0E-4C90-A5DD-CDF396183281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D612E2-3C50-41CA-B84E-957236A26E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -731,10 +731,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>35级，觉醒记忆，二级神巅峰精神力，一级神巅峰境界，告知爷爷详情，海神、修罗神和罗刹神趁神界遭遇时空乱流之时击杀天使神</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>海龙枪进化神圣龙枪</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -960,6 +956,10 @@
   </si>
   <si>
     <t>前世今生</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>35级，觉醒记忆，初入一级神精神力，一级神巅峰境界，告知爷爷详情，海神、修罗神和罗刹神趁神界遭遇时空乱流之时击杀天使神</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1370,7 +1370,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1428,10 +1428,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1496,7 +1496,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1546,7 +1546,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1774,7 +1774,7 @@
         <v>71</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -1882,7 +1882,7 @@
         <v>90</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C40" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D40" t="s">
         <v>95</v>
@@ -1982,7 +1982,7 @@
         <v>107</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
@@ -2074,7 +2074,7 @@
         <v>124</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E52" t="s">
         <v>13</v>
@@ -2129,7 +2129,7 @@
         <v>133</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E57" t="s">
         <v>13</v>
@@ -2210,7 +2210,7 @@
         <v>148</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E63" t="s">
         <v>13</v>
@@ -2218,13 +2218,13 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C64" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
@@ -2400,7 +2400,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C80" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
@@ -2414,13 +2414,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C81" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I81" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J81" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
@@ -2490,7 +2490,7 @@
         <v>193</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E86" t="s">
         <v>13</v>
@@ -2573,10 +2573,10 @@
         <v>207</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J93" t="s">
         <v>13</v>
@@ -2590,7 +2590,7 @@
         <v>13</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J94" t="s">
         <v>13</v>
@@ -2631,10 +2631,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C98" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J98" t="s">
         <v>13</v>
@@ -2656,7 +2656,7 @@
         <v>217</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J100" t="s">
         <v>13</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C102" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F102" t="s">
         <v>223</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C103" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G103" t="s">
         <v>13</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C104" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H104" t="s">
         <v>224</v>
@@ -2714,13 +2714,13 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C105" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
@@ -2736,41 +2736,41 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C107" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D107" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>266</v>
-      </c>
       <c r="E107" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C108" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D108" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>269</v>
       </c>
       <c r="E108" s="8"/>
       <c r="G108" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C109" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H109" s="8"/>
     </row>
@@ -2779,7 +2779,7 @@
         <v>227</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E110" t="s">
         <v>13</v>
@@ -2790,7 +2790,7 @@
         <v>228</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E111" t="s">
         <v>13</v>
@@ -2809,13 +2809,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C113" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="D113" s="8" t="s">
-        <v>277</v>
-      </c>
       <c r="E113" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -2826,7 +2826,7 @@
         <v>232</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F114" t="s">
         <v>233</v>
@@ -2840,7 +2840,7 @@
         <v>234</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -2848,72 +2848,72 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C116" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C117" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C118" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C119" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C120" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B121" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
@@ -2921,13 +2921,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C122" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D122" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D122" s="8" t="s">
-        <v>288</v>
-      </c>
       <c r="E122" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="519" s="1" customFormat="1" x14ac:dyDescent="0.35"/>

--- a/资料/大纲.xlsx
+++ b/资料/大纲.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="286">
   <si>
     <t>时间</t>
   </si>
@@ -52,61 +52,43 @@
     <t>2631年</t>
   </si>
   <si>
-    <t>9岁</t>
+    <t>9岁（1岁）</t>
   </si>
   <si>
     <t>前世今生</t>
   </si>
   <si>
+    <t>修罗神、海神、罗刹神联合在神界遭遇时空乱流时击杀天使神</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>震惊千道流</t>
+  </si>
+  <si>
     <t>35级，觉醒记忆，初入一级神精神力，一级神巅峰境界，告知爷爷详情，海神、修罗神和罗刹神趁神界遭遇时空乱流之时击杀天使神</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>分身换自由</t>
-  </si>
-  <si>
-    <t>分裂出一具1岁年龄的分身，武魂改为本体武魂，分身作为本体拥有完整灵魂，本体只拥有魂圣级别的精神力，大千仞雪称为原身，小千仞雪称为本体</t>
-  </si>
-  <si>
-    <t>走向岔路</t>
-  </si>
-  <si>
-    <t>杀上昊天宗，打压附属四宗但没有结死仇，任临时教皇</t>
+    <t>金蝉脱壳</t>
+  </si>
+  <si>
+    <t>分裂出一具1岁年龄的分身作为本体，武魂改为本体武魂，和原身各拥有一半的灵魂和精神力，本体前往瀚海城武魂殿由大主教敖渊收养，化名敖晨曦</t>
+  </si>
+  <si>
+    <t>剥夺比比东圣女之位</t>
+  </si>
+  <si>
+    <t>与千仞雪讨论接下来的计划，举行千寻疾的葬礼，任临时教皇，剥夺比比东圣女之位，揭穿比比东杀死千寻疾的事实</t>
   </si>
   <si>
     <t>抛弃附属四宗，躲进深山</t>
   </si>
   <si>
-    <t>比比东离去</t>
-  </si>
-  <si>
-    <t>千道流对比比东将话讲清，同意比比东离开，但威胁一旦比比东做出了危害武魂殿的事，他将亲自追杀</t>
-  </si>
-  <si>
-    <t>迷茫，独自离开了武魂殿</t>
-  </si>
-  <si>
-    <t>2632年</t>
-  </si>
-  <si>
-    <t>10岁（1岁）</t>
-  </si>
-  <si>
-    <t>分裂出一具1岁年龄的分身，武魂改为本体武魂，本体因此损失一成修炼根基，相当于先天九级魂力，分身作为本体拥有完整灵魂，本体只拥有魂王级别的神识，大千仞雪称为原身，小千仞雪称为本体</t>
-  </si>
-  <si>
-    <t>瀚海城敖晨曦</t>
-  </si>
-  <si>
-    <t>作为瀚海城武魂殿主教敖渊的义女敖晨曦隐藏身份，走锻体路线，开始吸收用武魂殿三百二十七个万年以下魂骨制作的魂骨丹和鲸胶</t>
-  </si>
-  <si>
-    <t>冰火两仪眼被毁</t>
-  </si>
-  <si>
-    <t>千道流命鬼菊斗罗找到冰火两仪眼，触发了修罗神的神识感知，修罗神毁掉了冰火两仪眼，但并不影响之后独孤博的修炼</t>
+    <t>昊天宗龟缩，三宗门归附</t>
+  </si>
+  <si>
+    <t>千道流带领供奉和长老去昊天宗，昊天宗夺进祖地，收付单属性三宗门和力之一族旁系</t>
   </si>
   <si>
     <t>嗑药锻体</t>
@@ -902,7 +884,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,33 +895,6 @@
     <font>
       <sz val="11"/>
       <color theme="7" tint="-0.499984740745262"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7" tint="-0.499984740745262"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -960,20 +915,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1429,10 +1377,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1441,151 +1389,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1905,12 +1849,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L601"/>
+  <dimension ref="A1:K599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1978,7 +1922,7 @@
       </c>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1988,229 +1932,217 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="3:11">
-      <c r="C4" t="s">
+    <row r="4" spans="3:5">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="4" t="s">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12">
-      <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="7" t="s">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="7" t="s">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="7" t="s">
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="C13" t="s">
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="C14" t="s">
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G15" t="s">
         <v>42</v>
       </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="C15" t="s">
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H16" t="s">
         <v>44</v>
       </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" t="s">
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G17" t="s">
+      <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="C18" s="6" t="s">
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H18" t="s">
+      <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D20" t="s">
@@ -2220,36 +2152,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
-      <c r="C21" s="7" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
       <c r="E21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>59</v>
       </c>
       <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D22" t="s">
         <v>62</v>
       </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="4" t="s">
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D23" t="s">
@@ -2258,41 +2187,38 @@
       <c r="E23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="3:7">
-      <c r="C25" s="4" t="s">
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>72</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
@@ -2300,10 +2226,10 @@
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
@@ -2311,224 +2237,230 @@
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" t="s">
         <v>76</v>
       </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="7" t="s">
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>78</v>
       </c>
-      <c r="E29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="7" t="s">
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E31" t="s">
         <v>80</v>
       </c>
-      <c r="E30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="7" t="s">
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" t="s">
         <v>81</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E32" t="s">
         <v>82</v>
       </c>
-      <c r="E31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5">
-      <c r="C32" s="7" t="s">
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>83</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B33" t="s">
         <v>84</v>
       </c>
-      <c r="E32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6">
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
       <c r="E33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7">
-      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
       <c r="E34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>92</v>
       </c>
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="4" t="s">
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>94</v>
       </c>
-      <c r="E36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" s="4" t="s">
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" t="s">
         <v>96</v>
       </c>
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="C38" s="4" t="s">
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>98</v>
       </c>
-      <c r="E38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39" s="4" t="s">
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>100</v>
       </c>
-      <c r="E39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="C40" s="2" t="s">
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>102</v>
       </c>
-      <c r="E40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41" s="4" t="s">
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
         <v>103</v>
       </c>
-      <c r="D41" t="s">
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" t="s">
         <v>104</v>
       </c>
-      <c r="E41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="C42" s="7" t="s">
+      <c r="F42" t="s">
         <v>105</v>
       </c>
-      <c r="D42" t="s">
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
         <v>106</v>
       </c>
-      <c r="E42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10">
-      <c r="C43" s="7" t="s">
+      <c r="B43" t="s">
         <v>107</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C43" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D43" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E43" t="s">
         <v>15</v>
       </c>
-      <c r="I43" t="s">
-        <v>109</v>
-      </c>
-      <c r="J43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7">
-      <c r="C44" t="s">
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F44" t="s">
+      <c r="D44" t="s">
         <v>111</v>
       </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="B46" t="s">
         <v>115</v>
       </c>
-      <c r="E45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
       <c r="C46" s="4" t="s">
         <v>116</v>
       </c>
@@ -2538,33 +2470,27 @@
       <c r="E46" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="3:5">
-      <c r="C47" s="7" t="s">
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47" t="s">
         <v>118</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>119</v>
       </c>
-      <c r="E47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7">
+      <c r="C48" t="s">
         <v>120</v>
       </c>
-      <c r="B48" t="s">
+      <c r="F48" t="s">
         <v>121</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" t="s">
-        <v>15</v>
       </c>
       <c r="G48" t="s">
         <v>15</v>
@@ -2572,71 +2498,71 @@
     </row>
     <row r="49" spans="3:7">
       <c r="C49" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
         <v>124</v>
       </c>
-      <c r="F49" t="s">
+      <c r="B50" t="s">
         <v>125</v>
       </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7">
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F50" t="s">
+      <c r="D50" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7">
-      <c r="C51" t="s">
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="C51" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F51" t="s">
+      <c r="D51" t="s">
         <v>129</v>
       </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="C53" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D53" t="s">
         <v>133</v>
       </c>
-      <c r="E52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5">
-      <c r="C53" s="4" t="s">
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="C54" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>135</v>
-      </c>
-      <c r="E53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5">
-      <c r="C54" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D54" t="s">
-        <v>137</v>
       </c>
       <c r="E54" t="s">
         <v>15</v>
@@ -2644,40 +2570,52 @@
     </row>
     <row r="55" spans="3:5">
       <c r="C55" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10">
+      <c r="C56" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D55" t="s">
+      <c r="H56" t="s">
         <v>139</v>
       </c>
-      <c r="E55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5">
-      <c r="C56" s="4" t="s">
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
         <v>140</v>
       </c>
-      <c r="D56" t="s">
+      <c r="B57" t="s">
         <v>141</v>
       </c>
-      <c r="E56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5">
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" t="s">
         <v>143</v>
       </c>
       <c r="E57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="3:10">
-      <c r="C58" s="6" t="s">
+    <row r="58" spans="3:9">
+      <c r="C58" s="4" t="s">
         <v>144</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
       </c>
       <c r="H58" t="s">
         <v>145</v>
@@ -2685,296 +2623,287 @@
       <c r="I58" t="s">
         <v>15</v>
       </c>
-      <c r="J58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>147</v>
       </c>
-      <c r="C59" s="7" t="s">
+    </row>
+    <row r="60" spans="3:5">
+      <c r="C60" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>149</v>
       </c>
-      <c r="E59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9">
-      <c r="C60" s="7" t="s">
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>150</v>
       </c>
-      <c r="E60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="B61" t="s">
         <v>151</v>
       </c>
-      <c r="I60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
         <v>153</v>
       </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
+      <c r="E62" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5">
+      <c r="C63" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>157</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5">
+      <c r="C64" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D64" t="s">
         <v>159</v>
       </c>
-      <c r="E63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5">
-      <c r="C64" s="2" t="s">
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7">
+      <c r="C65" t="s">
         <v>160</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
         <v>161</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5">
-      <c r="C65" s="4" t="s">
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7">
+      <c r="C66" t="s">
         <v>162</v>
       </c>
-      <c r="D65" t="s">
+      <c r="F66" t="s">
         <v>163</v>
       </c>
-      <c r="E65" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5">
-      <c r="C66" s="7" t="s">
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6">
+      <c r="C67" t="s">
         <v>164</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F67" t="s">
         <v>165</v>
-      </c>
-      <c r="E66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7">
-      <c r="C67" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" t="s">
-        <v>167</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="68" spans="3:7">
       <c r="C68" t="s">
+        <v>166</v>
+      </c>
+      <c r="F68" t="s">
+        <v>167</v>
+      </c>
+      <c r="G68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5">
+      <c r="C69" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F68" t="s">
+      <c r="D69" t="s">
         <v>169</v>
       </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6">
-      <c r="C69" t="s">
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5">
+      <c r="C70" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" t="s">
         <v>170</v>
       </c>
-      <c r="F69" t="s">
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="C71" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="70" spans="3:7">
-      <c r="C70" t="s">
+      <c r="D71" t="s">
         <v>172</v>
       </c>
-      <c r="F70" t="s">
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5">
+      <c r="C72" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5">
-      <c r="C71" s="7" t="s">
+      <c r="D72" t="s">
         <v>174</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5">
+      <c r="C73" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5">
-      <c r="C72" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>176</v>
       </c>
-      <c r="E72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5">
-      <c r="C73" s="7" t="s">
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
         <v>177</v>
       </c>
-      <c r="D73" t="s">
+      <c r="B74" t="s">
         <v>178</v>
       </c>
-      <c r="E73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5">
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D74" t="s">
+      <c r="I74" t="s">
         <v>180</v>
       </c>
-      <c r="E74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5">
-      <c r="C75" s="4" t="s">
+      <c r="J74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10">
+      <c r="C75" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D75" t="s">
+      <c r="I75" t="s">
         <v>182</v>
       </c>
-      <c r="E75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" t="s">
+      <c r="J75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10">
+      <c r="C76" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B76" t="s">
+      <c r="I76" t="s">
         <v>184</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="J76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10">
+      <c r="C77" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I77" t="s">
         <v>186</v>
       </c>
-      <c r="J76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10">
-      <c r="C77" s="6" t="s">
+      <c r="J77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10">
+      <c r="C78" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I77" t="s">
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" t="s">
         <v>188</v>
       </c>
-      <c r="J77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="3:10">
-      <c r="C78" s="6" t="s">
+      <c r="J78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10">
+      <c r="C79" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I79" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="J78" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="3:10">
-      <c r="C79" s="6" t="s">
+      <c r="J79" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
         <v>191</v>
       </c>
-      <c r="I79" t="s">
+      <c r="B80" t="s">
         <v>192</v>
       </c>
-      <c r="J79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="3:10">
-      <c r="C80" s="8" t="s">
+      <c r="C80" t="s">
         <v>193</v>
       </c>
-      <c r="E80" t="s">
-        <v>15</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="F80" t="s">
         <v>194</v>
       </c>
-      <c r="J80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="3:10">
-      <c r="C81" s="8" t="s">
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="C81" t="s">
         <v>195</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="F81" t="s">
         <v>196</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="C82" t="s">
         <v>197</v>
       </c>
-      <c r="B82" t="s">
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
         <v>198</v>
-      </c>
-      <c r="C82" t="s">
-        <v>199</v>
-      </c>
-      <c r="F82" t="s">
-        <v>200</v>
       </c>
       <c r="G82" t="s">
         <v>15</v>
@@ -2982,112 +2911,115 @@
     </row>
     <row r="83" spans="3:7">
       <c r="C83" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" t="s">
+        <v>200</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
         <v>201</v>
       </c>
-      <c r="F83" t="s">
+      <c r="B84" t="s">
         <v>202</v>
       </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="3:7">
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>203</v>
       </c>
+      <c r="D84" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="E84" t="s">
         <v>15</v>
       </c>
-      <c r="F84" t="s">
-        <v>204</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="3:7">
-      <c r="C85" t="s">
+      <c r="J84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5">
+      <c r="C85" s="4" t="s">
         <v>205</v>
       </c>
+      <c r="D85" t="s">
+        <v>206</v>
+      </c>
       <c r="E85" t="s">
         <v>15</v>
       </c>
-      <c r="F85" t="s">
-        <v>206</v>
-      </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" t="s">
+    </row>
+    <row r="86" spans="3:10">
+      <c r="C86" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B86" t="s">
+      <c r="I86" t="s">
         <v>208</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="J86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10">
+      <c r="C87" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="I87" t="s">
         <v>210</v>
       </c>
-      <c r="E86" t="s">
-        <v>15</v>
-      </c>
-      <c r="J86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5">
-      <c r="C87" s="7" t="s">
+      <c r="J87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10">
+      <c r="C88" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D87" t="s">
+      <c r="I88" t="s">
         <v>212</v>
       </c>
-      <c r="E87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="3:10">
-      <c r="C88" s="6" t="s">
+      <c r="J88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="3:10">
+      <c r="C89" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I89" t="s">
         <v>214</v>
       </c>
-      <c r="J88" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="3:10">
-      <c r="C89" s="6" t="s">
+      <c r="J89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10">
+      <c r="C90" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I90" t="s">
         <v>216</v>
       </c>
-      <c r="J89" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="3:10">
-      <c r="C90" s="6" t="s">
+      <c r="J90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
         <v>217</v>
       </c>
-      <c r="I90" t="s">
+      <c r="B91" t="s">
         <v>218</v>
       </c>
-      <c r="J90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="3:10">
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="3" t="s">
         <v>220</v>
       </c>
       <c r="J91" t="s">
@@ -3095,249 +3027,249 @@
       </c>
     </row>
     <row r="92" spans="3:10">
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="I92" t="s">
+      <c r="D92" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" s="3" t="s">
         <v>222</v>
       </c>
       <c r="J92" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
-      <c r="A93" t="s">
+    <row r="93" spans="3:10">
+      <c r="C93" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B93" t="s">
+      <c r="I93" t="s">
         <v>224</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="J93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8">
+      <c r="C94" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="I93" s="3" t="s">
+      <c r="G94" t="s">
         <v>226</v>
       </c>
-      <c r="J93" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="3:10">
-      <c r="C94" s="6" t="s">
+      <c r="H94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8">
+      <c r="C95" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D94" t="s">
-        <v>15</v>
-      </c>
-      <c r="I94" s="3" t="s">
+      <c r="G95" t="s">
         <v>228</v>
       </c>
-      <c r="J94" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="3:10">
-      <c r="C95" s="6" t="s">
+      <c r="H95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="3:10">
+      <c r="C96" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I96" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="J95" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="3:8">
-      <c r="C96" s="6" t="s">
+      <c r="J96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8">
+      <c r="C97" t="s">
         <v>231</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G97" t="s">
         <v>232</v>
       </c>
-      <c r="H96" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8">
-      <c r="C97" s="6" t="s">
+      <c r="H97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10">
+      <c r="C98" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G97" t="s">
+      <c r="I98" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H97" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="3:10">
-      <c r="C98" s="8" t="s">
+      <c r="J98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
         <v>235</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="B99" t="s">
         <v>236</v>
       </c>
-      <c r="J98" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="3:8">
-      <c r="C99" t="s">
+      <c r="C99" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G99" t="s">
+      <c r="F99" t="s">
         <v>238</v>
       </c>
-      <c r="H99" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="3:10">
-      <c r="C100" s="6" t="s">
+      <c r="I99" t="s">
         <v>239</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="J99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6">
+      <c r="C100" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="J100" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" t="s">
+      <c r="F100" t="s">
         <v>241</v>
       </c>
-      <c r="B101" t="s">
+    </row>
+    <row r="101" spans="3:7">
+      <c r="C101" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="F101" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9">
+      <c r="C102" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="I101" t="s">
+      <c r="H102" t="s">
         <v>245</v>
       </c>
-      <c r="J101" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="3:6">
-      <c r="C102" s="10" t="s">
+      <c r="I102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5">
+      <c r="C103" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F102" t="s">
+      <c r="D103" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="103" spans="3:7">
-      <c r="C103" s="10" t="s">
+      <c r="E103" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8">
+      <c r="C104" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="G104" t="s">
         <v>249</v>
       </c>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="3:9">
-      <c r="C104" s="10" t="s">
+      <c r="H104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5">
+      <c r="C105" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="H104" t="s">
+      <c r="D105" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="I104" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="3:5">
-      <c r="C105" s="10" t="s">
+      <c r="E105" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8">
+      <c r="C106" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="3:8">
-      <c r="C106" s="7" t="s">
+      <c r="E106" s="3"/>
+      <c r="G106" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8">
+      <c r="C107" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="H106" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="3:5">
-      <c r="C107" s="10" t="s">
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="G107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="3:5">
+      <c r="C108" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="3:8">
-      <c r="C108" s="10" t="s">
+      <c r="D108" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="E108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5">
+      <c r="C109" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E108" s="3"/>
-      <c r="G108" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H108" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="3:8">
-      <c r="C109" s="10" t="s">
+      <c r="E109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7">
+      <c r="C110" t="s">
         <v>261</v>
       </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3" t="s">
+      <c r="F110" t="s">
         <v>262</v>
       </c>
-      <c r="G109" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H109" s="3"/>
-    </row>
-    <row r="110" spans="3:5">
-      <c r="C110" s="7" t="s">
+      <c r="G110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5">
+      <c r="C111" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E110" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="3:5">
-      <c r="C111" s="7" t="s">
+      <c r="E111" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
         <v>265</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="B112" t="s">
         <v>266</v>
       </c>
-      <c r="E111" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="3:7">
-      <c r="C112" t="s">
+      <c r="C112" s="6" t="s">
         <v>267</v>
       </c>
       <c r="F112" t="s">
@@ -3348,128 +3280,102 @@
       </c>
     </row>
     <row r="113" spans="3:5">
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="2" t="s">
         <v>269</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" t="s">
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="3:7">
+      <c r="C114" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B114" t="s">
+      <c r="F114" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="G114" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5">
+      <c r="C115" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F114" t="s">
+      <c r="D115" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="3:5">
-      <c r="C115" s="4" t="s">
+      <c r="E115" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="3:7">
+      <c r="C116" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E115" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="3:7">
-      <c r="C116" s="10" t="s">
+      <c r="G116" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="3:7">
+      <c r="C117" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="G116" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="3:5">
-      <c r="C117" s="2" t="s">
+      <c r="E117" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="3:5">
+      <c r="C118" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D118" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="3:7">
-      <c r="C118" s="11" t="s">
+      <c r="E118" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G118" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="3:7">
-      <c r="C119" s="10" t="s">
+      <c r="D119" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
+      <c r="E119" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="120" spans="3:5">
       <c r="C120" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="E120" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="2:5">
-      <c r="B121" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E121" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122" spans="3:5">
-      <c r="C122" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
+    <row r="517" s="1" customFormat="1"/>
+    <row r="518" s="1" customFormat="1"/>
     <row r="519" s="1" customFormat="1"/>
     <row r="520" s="1" customFormat="1"/>
     <row r="521" s="1" customFormat="1"/>
@@ -3551,8 +3457,6 @@
     <row r="597" s="1" customFormat="1"/>
     <row r="598" s="1" customFormat="1"/>
     <row r="599" s="1" customFormat="1"/>
-    <row r="600" s="1" customFormat="1"/>
-    <row r="601" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/资料/大纲.xlsx
+++ b/资料/大纲.xlsx
@@ -85,13 +85,13 @@
     <t>抛弃附属四宗，躲进深山</t>
   </si>
   <si>
-    <t>昊天宗龟缩，三宗门归附</t>
+    <t>昊天宗龟缩，四宗门归附</t>
   </si>
   <si>
     <t>千道流带领供奉和长老去昊天宗，昊天宗夺进祖地，收付单属性三宗门和力之一族旁系</t>
   </si>
   <si>
-    <t>尝试锻体流</t>
+    <t>开发锻体路线</t>
   </si>
   <si>
     <t>敖晨曦在瀚海城每天坚持锻体，消化吸收魂骨，尝试以魂骨的理论锻体，敖晨曦在吸收了大概1W年魂骨精华后，身体气血突破了某个界限，体内自然诞生了魂力</t>
@@ -878,7 +878,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,13 +889,6 @@
     <font>
       <sz val="11"/>
       <color theme="7" tint="-0.499984740745262"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1378,10 +1371,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1390,33 +1383,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1426,97 +1422,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1526,11 +1519,11 @@
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1855,7 +1848,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2132,7 +2125,6 @@
         <v>46</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25"/>
       <c r="E25" t="s">
         <v>15</v>
       </c>

--- a/资料/大纲.xlsx
+++ b/资料/大纲.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="276">
   <si>
     <t>时间</t>
   </si>
@@ -97,40 +97,16 @@
     <t>敖晨曦在瀚海城每天坚持锻体，消化吸收魂骨，尝试以魂骨的理论锻体，敖晨曦在吸收了大概1W年魂骨精华后，身体气血突破了某个界限，体内自然诞生了魂力</t>
   </si>
   <si>
-    <t>清理武魂殿</t>
-  </si>
-  <si>
-    <t>整治武魂殿蛀虫，成立直属教皇的执法队</t>
-  </si>
-  <si>
-    <t>魂导器留学团</t>
-  </si>
-  <si>
-    <t>招揽铁匠协会，派余龙、刺豚带领楼高和他两个徒弟前往日月大陆学习魂导器技术，成立武魂殿工业区，发展铁器</t>
-  </si>
-  <si>
-    <t>蒸汽机设想</t>
-  </si>
-  <si>
-    <t>将上辈子的数学只是和物理知识整理成册，然后提供瓦特蒸汽机原理图，由思凯和思雨负责研发，还有坩埚炼钢法</t>
-  </si>
-  <si>
-    <t>武魂殿银行</t>
-  </si>
-  <si>
-    <t>成立武魂殿银行，武魂殿中央银行，存款储备金暂定为30%</t>
-  </si>
-  <si>
-    <t>颓废的玉小刚</t>
-  </si>
-  <si>
-    <t>找到玉小刚，发现其邋遢，发呆，酗酒，形象光环褪去，前去告白，并说明自身不清白了之后，死爱面子的玉小刚拒绝了比比东</t>
-  </si>
-  <si>
-    <t>颓废的唐昊</t>
-  </si>
-  <si>
-    <t>发现冰火两仪眼被武魂殿占领很不高兴，描写修罗神与唐三的关系，又发现唐昊荒废修炼，整日酗酒，修罗神暗中助其提升实力</t>
+    <t>武魂殿的发展</t>
+  </si>
+  <si>
+    <t>整治武魂殿蛀虫，派遣力之一族和蛇矛斗罗、刺豚斗罗去日月大陆学习魂导器技术，招揽铁匠协会展开自然科学技术研发，开设武魂殿自己的银行</t>
+  </si>
+  <si>
+    <t>颓废的玉小刚和唐昊</t>
+  </si>
+  <si>
+    <t>找到玉小刚，发现其邋遢，发呆，酗酒，形象光环褪去，前去告白，并说明自身不清白了之后，死爱面子的玉小刚拒绝了比比东，描写修罗神与唐三的关系，又发现唐昊荒废修炼，整日酗酒，修罗神暗中助其提升实力</t>
   </si>
   <si>
     <t>黄金一代</t>
@@ -1843,12 +1819,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K607"/>
+  <dimension ref="A1:K603"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1990,179 +1966,185 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
-      <c r="C9" t="s">
+    <row r="9" spans="3:8">
+      <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" t="s">
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11" t="s">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F11" t="s">
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="4" t="s">
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G12" t="s">
+      <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9">
-      <c r="C13" s="4" t="s">
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9">
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9">
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="H13" t="s">
+      <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="C16" s="5" t="s">
+      <c r="C21" s="2"/>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D22" t="s">
         <v>40</v>
       </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="5" t="s">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E23" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="5" t="s">
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7">
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7">
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9">
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="9:9">
-      <c r="I24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+      <c r="C24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="D24" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="5" t="s">
-        <v>47</v>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6">
-      <c r="C27" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
@@ -2170,31 +2152,28 @@
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>58</v>
-      </c>
+    <row r="30" spans="3:5">
       <c r="C30" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="3:7">
-      <c r="C31" s="2" t="s">
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D31" t="s">
@@ -2203,12 +2182,9 @@
       <c r="E31" t="s">
         <v>15</v>
       </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D32" t="s">
@@ -2219,7 +2195,7 @@
       </c>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D33" t="s">
@@ -2230,7 +2206,7 @@
       </c>
     </row>
     <row r="34" spans="3:5">
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D34" t="s">
@@ -2240,82 +2216,82 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="5" t="s">
+    <row r="35" spans="3:6">
+      <c r="C35" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>70</v>
       </c>
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="5" t="s">
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" t="s">
         <v>71</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" s="5" t="s">
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
         <v>73</v>
       </c>
+      <c r="B37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="3:5">
-      <c r="C38" s="5" t="s">
-        <v>75</v>
+      <c r="C38" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="3:6">
-      <c r="C39" s="6" t="s">
-        <v>77</v>
+    <row r="39" spans="3:5">
+      <c r="C39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7">
-      <c r="C40" t="s">
-        <v>79</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
       <c r="C41" s="2" t="s">
         <v>83</v>
       </c>
@@ -2349,7 +2325,7 @@
       </c>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D44" t="s">
@@ -2359,8 +2335,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="3:5">
-      <c r="C45" s="2" t="s">
+    <row r="45" spans="3:10">
+      <c r="C45" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D45" t="s">
@@ -2369,167 +2345,167 @@
       <c r="E45" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="C46" s="2" t="s">
+      <c r="I45" t="s">
         <v>93</v>
       </c>
-      <c r="D46" t="s">
+      <c r="J45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7">
+      <c r="C46" t="s">
         <v>94</v>
       </c>
-      <c r="E46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5">
+      <c r="F46" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="C47" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E47" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="3:5">
-      <c r="C48" s="5" t="s">
-        <v>97</v>
+      <c r="C48" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="3:10">
+    <row r="49" spans="3:5">
       <c r="C49" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
         <v>15</v>
       </c>
-      <c r="I49" t="s">
-        <v>101</v>
-      </c>
-      <c r="J49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7">
-      <c r="C50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F50" t="s">
-        <v>103</v>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
       </c>
       <c r="G50" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5">
-      <c r="C52" s="2" t="s">
+    <row r="51" spans="3:7">
+      <c r="C51" t="s">
         <v>108</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F51" t="s">
         <v>109</v>
       </c>
-      <c r="E52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5">
-      <c r="C53" s="5" t="s">
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7">
+      <c r="C52" t="s">
         <v>110</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F52" t="s">
         <v>111</v>
       </c>
-      <c r="E53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7">
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E54" t="s">
         <v>15</v>
       </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7">
-      <c r="C55" t="s">
-        <v>116</v>
-      </c>
-      <c r="F55" t="s">
-        <v>117</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7">
-      <c r="C56" t="s">
+    </row>
+    <row r="55" spans="3:5">
+      <c r="C55" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F56" t="s">
+      <c r="D55" t="s">
         <v>119</v>
       </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7">
-      <c r="C57" t="s">
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="C56" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F57" t="s">
+      <c r="D56" t="s">
         <v>121</v>
       </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="C57" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="D57" t="s">
         <v>123</v>
       </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
       <c r="C58" s="2" t="s">
         <v>124</v>
       </c>
@@ -2541,7 +2517,7 @@
       </c>
     </row>
     <row r="59" spans="3:5">
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="5" t="s">
         <v>126</v>
       </c>
       <c r="D59" t="s">
@@ -2551,272 +2527,275 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="3:5">
-      <c r="C60" s="2" t="s">
+    <row r="60" spans="3:10">
+      <c r="C60" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D60" t="s">
+      <c r="H60" t="s">
         <v>129</v>
       </c>
-      <c r="E60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5">
-      <c r="C61" s="2" t="s">
+      <c r="I60" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>130</v>
       </c>
+      <c r="B61" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E61" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="3:5">
-      <c r="C62" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D62" t="s">
-        <v>133</v>
+    <row r="62" spans="3:9">
+      <c r="C62" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="E62" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="3:5">
+      <c r="H62" t="s">
+        <v>135</v>
+      </c>
+      <c r="I62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
       <c r="C63" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D63" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="3:10">
-      <c r="C64" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H64" t="s">
         <v>137</v>
       </c>
-      <c r="I64" t="s">
-        <v>15</v>
-      </c>
-      <c r="J64" t="s">
+    </row>
+    <row r="64" spans="3:5">
+      <c r="C64" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="D65" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="3:9">
-      <c r="C66" s="5" t="s">
-        <v>142</v>
+    <row r="66" spans="3:5">
+      <c r="C66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" t="s">
+        <v>145</v>
       </c>
       <c r="E66" t="s">
         <v>15</v>
       </c>
-      <c r="H66" t="s">
-        <v>143</v>
-      </c>
-      <c r="I66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4">
-      <c r="C67" s="5" t="s">
-        <v>144</v>
+    </row>
+    <row r="67" spans="3:5">
+      <c r="C67" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="3:5">
       <c r="C68" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>148</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="2" t="s">
+    <row r="69" spans="3:7">
+      <c r="C69" t="s">
         <v>150</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s">
         <v>151</v>
       </c>
-      <c r="E69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5">
-      <c r="C70" s="2" t="s">
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7">
+      <c r="C70" t="s">
         <v>152</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
         <v>153</v>
       </c>
-      <c r="E70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5">
-      <c r="C71" s="2" t="s">
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6">
+      <c r="C71" t="s">
         <v>154</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
         <v>155</v>
       </c>
-      <c r="E71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5">
-      <c r="C72" s="5" t="s">
+    </row>
+    <row r="72" spans="3:7">
+      <c r="C72" t="s">
         <v>156</v>
       </c>
-      <c r="D72" t="s">
+      <c r="F72" t="s">
         <v>157</v>
       </c>
-      <c r="E72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="3:7">
-      <c r="C73" t="s">
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5">
+      <c r="C73" s="5" t="s">
         <v>158</v>
       </c>
+      <c r="D73" t="s">
+        <v>159</v>
+      </c>
       <c r="E73" t="s">
         <v>15</v>
       </c>
-      <c r="F73" t="s">
-        <v>159</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="3:7">
-      <c r="C74" t="s">
+    </row>
+    <row r="74" spans="3:5">
+      <c r="C74" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" t="s">
         <v>160</v>
       </c>
-      <c r="F74" t="s">
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5">
+      <c r="C75" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6">
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>162</v>
       </c>
-      <c r="F75" t="s">
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5">
+      <c r="C76" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="76" spans="3:7">
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>164</v>
       </c>
-      <c r="F76" t="s">
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5">
+      <c r="C77" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5">
-      <c r="C77" s="5" t="s">
+      <c r="D77" t="s">
         <v>166</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
         <v>167</v>
       </c>
-      <c r="E77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5">
-      <c r="C78" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="B78" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E78" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5">
-      <c r="C79" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D79" t="s">
+      <c r="I78" t="s">
         <v>170</v>
       </c>
-      <c r="E79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5">
-      <c r="C80" s="2" t="s">
+      <c r="J78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10">
+      <c r="C79" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D80" t="s">
+      <c r="I79" t="s">
         <v>172</v>
       </c>
-      <c r="E80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5">
-      <c r="C81" s="2" t="s">
+      <c r="J79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10">
+      <c r="C80" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D81" t="s">
+      <c r="I80" t="s">
         <v>174</v>
       </c>
-      <c r="E81" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" t="s">
+      <c r="J80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10">
+      <c r="C81" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="I81" t="s">
         <v>176</v>
       </c>
+      <c r="J81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10">
       <c r="C82" s="4" t="s">
         <v>177</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
       </c>
       <c r="I82" t="s">
         <v>178</v>
@@ -2836,137 +2815,134 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="3:10">
-      <c r="C84" s="4" t="s">
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
         <v>181</v>
       </c>
-      <c r="I84" t="s">
+      <c r="B84" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="J84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="3:10">
-      <c r="C85" s="4" t="s">
+      <c r="C84" t="s">
         <v>183</v>
       </c>
-      <c r="I85" t="s">
+      <c r="F84" t="s">
         <v>184</v>
       </c>
-      <c r="J85" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="3:10">
-      <c r="C86" s="4" t="s">
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7">
+      <c r="C85" t="s">
         <v>185</v>
       </c>
+      <c r="F85" t="s">
+        <v>186</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7">
+      <c r="C86" t="s">
+        <v>187</v>
+      </c>
       <c r="E86" t="s">
         <v>15</v>
       </c>
-      <c r="I86" t="s">
-        <v>186</v>
-      </c>
-      <c r="J86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="3:10">
-      <c r="C87" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="F86" t="s">
         <v>188</v>
       </c>
-      <c r="J87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7">
+      <c r="C87" t="s">
+        <v>189</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" t="s">
+        <v>190</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C88" t="s">
-        <v>191</v>
-      </c>
-      <c r="F88" t="s">
         <v>192</v>
       </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="3:7">
-      <c r="C89" t="s">
+      <c r="C88" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F89" t="s">
+      <c r="D88" t="s">
         <v>194</v>
       </c>
-      <c r="G89" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="3:7">
-      <c r="C90" t="s">
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5">
+      <c r="C89" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E90" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="D89" t="s">
         <v>196</v>
       </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="3:7">
-      <c r="C91" t="s">
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10">
+      <c r="C90" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E91" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="I90" t="s">
         <v>198</v>
       </c>
-      <c r="G91" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" t="s">
+      <c r="J90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10">
+      <c r="C91" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="I91" t="s">
         <v>200</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="J91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10">
+      <c r="C92" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D92" t="s">
+      <c r="I92" t="s">
         <v>202</v>
       </c>
-      <c r="E92" t="s">
-        <v>15</v>
-      </c>
       <c r="J92" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="3:5">
-      <c r="C93" s="5" t="s">
+    <row r="93" spans="3:10">
+      <c r="C93" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D93" t="s">
+      <c r="I93" t="s">
         <v>204</v>
       </c>
-      <c r="E93" t="s">
+      <c r="J93" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2981,12 +2957,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="3:10">
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="C95" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I95" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J95" t="s">
         <v>15</v>
@@ -2994,10 +2976,13 @@
     </row>
     <row r="96" spans="3:10">
       <c r="C96" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J96" t="s">
         <v>15</v>
@@ -3005,40 +2990,34 @@
     </row>
     <row r="97" spans="3:10">
       <c r="C97" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I97" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J97" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="3:10">
+    <row r="98" spans="3:8">
       <c r="C98" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I98" t="s">
-        <v>214</v>
-      </c>
-      <c r="J98" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" t="s">
         <v>215</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="G98" t="s">
         <v>216</v>
       </c>
+      <c r="H98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8">
       <c r="C99" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="I99" t="s">
+      <c r="G99" t="s">
         <v>218</v>
       </c>
-      <c r="J99" t="s">
+      <c r="H99" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3046,9 +3025,6 @@
       <c r="C100" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D100" t="s">
-        <v>15</v>
-      </c>
       <c r="I100" t="s">
         <v>220</v>
       </c>
@@ -3056,231 +3032,231 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="3:10">
-      <c r="C101" s="4" t="s">
+    <row r="101" spans="3:8">
+      <c r="C101" t="s">
         <v>221</v>
       </c>
-      <c r="I101" t="s">
+      <c r="G101" t="s">
         <v>222</v>
       </c>
-      <c r="J101" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="3:8">
+      <c r="H101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10">
       <c r="C102" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G102" t="s">
+      <c r="I102" t="s">
         <v>224</v>
       </c>
-      <c r="H102" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="3:8">
-      <c r="C103" s="4" t="s">
+      <c r="J102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
         <v>225</v>
       </c>
-      <c r="G103" t="s">
+      <c r="B103" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H103" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="3:10">
-      <c r="C104" s="4" t="s">
+      <c r="C103" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="I104" t="s">
+      <c r="F103" t="s">
         <v>228</v>
       </c>
-      <c r="J104" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="3:8">
-      <c r="C105" t="s">
+      <c r="I103" t="s">
         <v>229</v>
       </c>
+      <c r="J103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6">
+      <c r="C104" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F104" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7">
+      <c r="C105" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F105" t="s">
+        <v>233</v>
+      </c>
       <c r="G105" t="s">
-        <v>230</v>
-      </c>
-      <c r="H105" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="3:10">
-      <c r="C106" s="4" t="s">
-        <v>231</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9">
+      <c r="C106" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H106" t="s">
+        <v>235</v>
       </c>
       <c r="I106" t="s">
-        <v>232</v>
-      </c>
-      <c r="J106" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="A107" t="s">
-        <v>233</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5">
+      <c r="C107" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I107" t="s">
+      <c r="D107" t="s">
         <v>237</v>
       </c>
-      <c r="J107" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="3:6">
+      <c r="E107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8">
       <c r="C108" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="109" spans="3:7">
+      <c r="H108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5">
       <c r="C109" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F109" t="s">
+      <c r="D109" t="s">
         <v>241</v>
       </c>
-      <c r="G109" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="3:9">
+      <c r="E109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8">
       <c r="C110" s="5" t="s">
         <v>242</v>
       </c>
+      <c r="D110" t="s">
+        <v>243</v>
+      </c>
+      <c r="G110" t="s">
+        <v>244</v>
+      </c>
       <c r="H110" t="s">
-        <v>243</v>
-      </c>
-      <c r="I110" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="3:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7">
       <c r="C111" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D111" t="s">
         <v>245</v>
       </c>
-      <c r="E111" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="3:8">
+      <c r="F111" t="s">
+        <v>246</v>
+      </c>
+      <c r="G111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5">
       <c r="C112" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G112" t="s">
         <v>247</v>
       </c>
-      <c r="H112" t="s">
+      <c r="D112" t="s">
+        <v>248</v>
+      </c>
+      <c r="E112" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="113" spans="3:5">
       <c r="C113" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D113" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E113" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="3:8">
-      <c r="C114" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D114" t="s">
+    <row r="114" spans="3:7">
+      <c r="C114" t="s">
         <v>251</v>
       </c>
+      <c r="F114" t="s">
+        <v>252</v>
+      </c>
       <c r="G114" t="s">
-        <v>252</v>
-      </c>
-      <c r="H114" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="3:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5">
       <c r="C115" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F115" t="s">
+      <c r="D115" t="s">
         <v>254</v>
       </c>
-      <c r="G115" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="3:5">
-      <c r="C116" s="5" t="s">
+      <c r="E115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
         <v>255</v>
       </c>
-      <c r="D116" t="s">
+      <c r="B116" t="s">
         <v>256</v>
       </c>
-      <c r="E116" t="s">
+      <c r="C116" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F116" t="s">
+        <v>258</v>
+      </c>
+      <c r="G116" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="117" spans="3:5">
-      <c r="C117" s="5" t="s">
-        <v>257</v>
+      <c r="C117" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="D117" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="118" spans="3:7">
-      <c r="C118" t="s">
-        <v>259</v>
+      <c r="C118" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="F118" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="119" spans="3:5">
-      <c r="C119" s="5" t="s">
-        <v>261</v>
+      <c r="C119" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="D119" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E119" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
-      <c r="A120" t="s">
-        <v>263</v>
-      </c>
-      <c r="B120" t="s">
-        <v>264</v>
-      </c>
+    <row r="120" spans="3:7">
       <c r="C120" s="6" t="s">
         <v>265</v>
       </c>
@@ -3292,7 +3268,7 @@
       </c>
     </row>
     <row r="121" spans="3:5">
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="5" t="s">
         <v>267</v>
       </c>
       <c r="D121" t="s">
@@ -3302,86 +3278,46 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="3:7">
-      <c r="C122" s="5" t="s">
+    <row r="122" spans="3:5">
+      <c r="C122" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F122" t="s">
+      <c r="D122" t="s">
         <v>270</v>
       </c>
-      <c r="G122" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="3:5">
+      <c r="E122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" t="s">
+        <v>271</v>
+      </c>
       <c r="C123" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D123" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E123" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="3:7">
-      <c r="C124" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F124" t="s">
+    <row r="124" spans="3:5">
+      <c r="C124" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G124" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" spans="3:5">
-      <c r="C125" s="5" t="s">
+      <c r="D124" t="s">
         <v>275</v>
       </c>
-      <c r="D125" t="s">
-        <v>276</v>
-      </c>
-      <c r="E125" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="3:5">
-      <c r="C126" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D126" t="s">
-        <v>278</v>
-      </c>
-      <c r="E126" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5">
-      <c r="B127" t="s">
-        <v>279</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D127" t="s">
-        <v>281</v>
-      </c>
-      <c r="E127" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="3:5">
-      <c r="C128" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D128" t="s">
-        <v>283</v>
-      </c>
-      <c r="E128" t="s">
-        <v>15</v>
-      </c>
-    </row>
+      <c r="E124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="521" s="1" customFormat="1"/>
+    <row r="522" s="1" customFormat="1"/>
+    <row r="523" s="1" customFormat="1"/>
+    <row r="524" s="1" customFormat="1"/>
     <row r="525" s="1" customFormat="1"/>
     <row r="526" s="1" customFormat="1"/>
     <row r="527" s="1" customFormat="1"/>
@@ -3461,10 +3397,6 @@
     <row r="601" s="1" customFormat="1"/>
     <row r="602" s="1" customFormat="1"/>
     <row r="603" s="1" customFormat="1"/>
-    <row r="604" s="1" customFormat="1"/>
-    <row r="605" s="1" customFormat="1"/>
-    <row r="606" s="1" customFormat="1"/>
-    <row r="607" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/资料/大纲.xlsx
+++ b/资料/大纲.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="268">
   <si>
     <t>时间</t>
   </si>
@@ -109,10 +109,28 @@
     <t>找到玉小刚，发现其邋遢，发呆，酗酒，形象光环褪去，前去告白，并说明自身不清白了之后，死爱面子的玉小刚拒绝了比比东，描写修罗神与唐三的关系，又发现唐昊荒废修炼，整日酗酒，修罗神暗中助其提升实力</t>
   </si>
   <si>
+    <t>2634年</t>
+  </si>
+  <si>
+    <t>12岁（4岁）</t>
+  </si>
+  <si>
+    <t>超凡之体</t>
+  </si>
+  <si>
+    <t>敖晨曦达到锻体20级</t>
+  </si>
+  <si>
+    <t>湖中锻体</t>
+  </si>
+  <si>
+    <t>敖晨曦前往瀚海城附近的青云湖，青云湖是一个直径100公里的大湖，传说最深处有500米以上，直通海洋，敖晨曦在青云湖中利用水压锻体</t>
+  </si>
+  <si>
     <t>黄金一代</t>
   </si>
   <si>
-    <t>武魂殿学院千仞雪训练炎8岁、邪月8岁、胡列娜7岁、天玥6岁、张萍7岁</t>
+    <t>武魂殿学院千仞雪训练炎8岁、邪月8岁、胡列娜7岁、天玥6岁、张萍7岁，千道流找上九心海棠家族，以一名长老之位为条件收服，叶泠泠6岁加入战队</t>
   </si>
   <si>
     <t>魂力掌控修炼</t>
@@ -127,52 +145,10 @@
     <t>将整理前世小、初、高中知识，加入武魂殿教材，这些知识对领悟魂力有大用，千仞雪已经凭借前世两世累积将境界突破到了神王级</t>
   </si>
   <si>
-    <t>2633年</t>
-  </si>
-  <si>
-    <t>11岁（3岁）</t>
-  </si>
-  <si>
-    <t>优化修炼路线</t>
-  </si>
-  <si>
-    <t>千仞雪利用敖晨曦凝练魂骨的经验优化了修炼路线，教黄金一代感悟武魂，草药和鲸胶打熬身体，开始凝聚本命魂骨，魂骨可提升战力，有助于越级吸收魂环</t>
-  </si>
-  <si>
-    <t>九心海棠加入</t>
-  </si>
-  <si>
-    <t>找上九心海棠家族，以一名长老之位为条件收服，叶泠泠6岁加入战队</t>
-  </si>
-  <si>
-    <t>2634年</t>
-  </si>
-  <si>
-    <t>12岁（4岁）</t>
-  </si>
-  <si>
-    <t>达到瓶颈</t>
-  </si>
-  <si>
-    <t>敖晨曦已经累积吸收了3W多年的魂骨精华，魂力突破了10级达到11级，综合战力达到了魂宗级别，普通的锻体已经效率很低快要达到瓶颈</t>
-  </si>
-  <si>
-    <t>湖中锻体</t>
-  </si>
-  <si>
-    <t>敖晨曦前往瀚海城附近的青云湖，青云湖是一个直径100公里的大湖，传说最深处有500米以上，直通海洋，敖晨曦在青云湖中利用水压锻体</t>
-  </si>
-  <si>
     <t>2635年</t>
   </si>
   <si>
     <t>13岁（5岁）</t>
-  </si>
-  <si>
-    <t>超凡之体</t>
-  </si>
-  <si>
-    <t>敖晨曦达到锻体10级</t>
   </si>
   <si>
     <t>青云湖霸主</t>
@@ -1819,12 +1795,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K603"/>
+  <dimension ref="A1:K591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="$A10:$XFD10"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1977,174 +1953,235 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="3:7">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="3"/>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5">
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="3"/>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="2:4">
+      <c r="B14" s="3"/>
       <c r="C14" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="6:6">
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="7:7">
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7">
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="9:9">
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9">
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="2"/>
+    <row r="19" spans="3:5">
+      <c r="C19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
       <c r="E21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="5" t="s">
-        <v>41</v>
+      <c r="C23" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
+    <row r="24" spans="3:7">
+      <c r="C24" t="s">
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>50</v>
-      </c>
+    <row r="26" spans="3:5">
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
       <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
@@ -2152,10 +2189,10 @@
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
@@ -2163,21 +2200,21 @@
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="5" t="s">
-        <v>61</v>
+      <c r="C31" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
@@ -2185,129 +2222,147 @@
     </row>
     <row r="32" spans="3:5">
       <c r="C32" s="5" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="3:10">
       <c r="C33" s="5" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6">
-      <c r="C35" s="6" t="s">
-        <v>69</v>
+      <c r="I33" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7">
-      <c r="C36" t="s">
-        <v>71</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>75</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="3:5">
-      <c r="C38" s="2" t="s">
-        <v>77</v>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="C40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5">
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="C42" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
         <v>15</v>
@@ -2315,158 +2370,146 @@
     </row>
     <row r="43" spans="3:5">
       <c r="C43" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="5" t="s">
-        <v>89</v>
+      <c r="C44" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="3:10">
-      <c r="C45" s="5" t="s">
-        <v>91</v>
+    <row r="45" spans="3:5">
+      <c r="C45" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
         <v>15</v>
       </c>
-      <c r="I45" t="s">
-        <v>93</v>
-      </c>
-      <c r="J45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7">
-      <c r="C46" t="s">
-        <v>94</v>
-      </c>
-      <c r="F46" t="s">
-        <v>95</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>98</v>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E47" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="3:5">
-      <c r="C48" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5">
+    <row r="48" spans="3:10">
+      <c r="C48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H48" t="s">
+        <v>121</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="C49" s="5" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>105</v>
-      </c>
+    <row r="50" spans="3:9">
       <c r="C50" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E50" t="s">
         <v>15</v>
       </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7">
-      <c r="C51" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7">
-      <c r="C52" t="s">
-        <v>110</v>
-      </c>
-      <c r="F52" t="s">
-        <v>111</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7">
-      <c r="C53" t="s">
-        <v>112</v>
-      </c>
-      <c r="F53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="H50" t="s">
+        <v>127</v>
+      </c>
+      <c r="I50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
       <c r="C54" s="2" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E54" t="s">
         <v>15</v>
@@ -2474,284 +2517,293 @@
     </row>
     <row r="55" spans="3:5">
       <c r="C55" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="3:5">
-      <c r="C56" s="2" t="s">
-        <v>120</v>
+      <c r="C56" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="3:5">
-      <c r="C57" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" t="s">
-        <v>123</v>
+    <row r="57" spans="3:7">
+      <c r="C57" t="s">
+        <v>142</v>
       </c>
       <c r="E57" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="3:5">
-      <c r="C58" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5">
-      <c r="C59" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" t="s">
-        <v>127</v>
-      </c>
-      <c r="E59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10">
-      <c r="C60" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H60" t="s">
-        <v>129</v>
-      </c>
-      <c r="I60" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>130</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="F57" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7">
+      <c r="C58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="C59" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7">
+      <c r="C60" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
       <c r="C61" s="5" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E61" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="3:9">
+    <row r="62" spans="3:5">
       <c r="C62" s="5" t="s">
-        <v>134</v>
+        <v>94</v>
+      </c>
+      <c r="D62" t="s">
+        <v>152</v>
       </c>
       <c r="E62" t="s">
         <v>15</v>
       </c>
-      <c r="H62" t="s">
-        <v>135</v>
-      </c>
-      <c r="I62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4">
+    </row>
+    <row r="63" spans="3:5">
       <c r="C63" s="5" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>154</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="5" t="s">
-        <v>138</v>
+      <c r="C64" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="D64" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="E64" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>140</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>141</v>
-      </c>
+    <row r="65" spans="3:5">
       <c r="C65" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="3:5">
-      <c r="C66" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D66" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5">
-      <c r="C67" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D67" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5">
-      <c r="C68" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D68" t="s">
-        <v>149</v>
-      </c>
-      <c r="E68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="3:7">
-      <c r="C69" t="s">
-        <v>150</v>
-      </c>
-      <c r="E69" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" t="s">
-        <v>151</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="3:7">
-      <c r="C70" t="s">
-        <v>152</v>
-      </c>
-      <c r="F70" t="s">
-        <v>153</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6">
-      <c r="C71" t="s">
-        <v>154</v>
-      </c>
-      <c r="F71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="3:7">
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I66" t="s">
+        <v>162</v>
+      </c>
+      <c r="J66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10">
+      <c r="C67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I67" t="s">
+        <v>164</v>
+      </c>
+      <c r="J67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10">
+      <c r="C68" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I68" t="s">
+        <v>166</v>
+      </c>
+      <c r="J68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10">
+      <c r="C69" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I69" t="s">
+        <v>168</v>
+      </c>
+      <c r="J69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10">
+      <c r="C70" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" t="s">
+        <v>170</v>
+      </c>
+      <c r="J70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10">
+      <c r="C71" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I71" t="s">
+        <v>172</v>
+      </c>
+      <c r="J71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F72" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="G72" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="3:5">
-      <c r="C73" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" t="s">
-        <v>159</v>
-      </c>
-      <c r="E73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5">
-      <c r="C74" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D74" t="s">
-        <v>160</v>
+    <row r="73" spans="3:7">
+      <c r="C73" t="s">
+        <v>177</v>
+      </c>
+      <c r="F73" t="s">
+        <v>178</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7">
+      <c r="C74" t="s">
+        <v>179</v>
       </c>
       <c r="E74" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="75" spans="3:5">
-      <c r="C75" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D75" t="s">
-        <v>162</v>
+      <c r="F74" t="s">
+        <v>180</v>
+      </c>
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7">
+      <c r="C75" t="s">
+        <v>181</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="76" spans="3:5">
-      <c r="C76" s="2" t="s">
-        <v>163</v>
+      <c r="F75" t="s">
+        <v>182</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="D76" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="E76" t="s">
         <v>15</v>
       </c>
+      <c r="J76" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="2" t="s">
-        <v>165</v>
+      <c r="C77" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="D77" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="E77" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
-      <c r="A78" t="s">
-        <v>167</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>168</v>
-      </c>
+    <row r="78" spans="3:10">
       <c r="C78" s="4" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="I78" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J78" t="s">
         <v>15</v>
@@ -2759,10 +2811,10 @@
     </row>
     <row r="79" spans="3:10">
       <c r="C79" s="4" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="I79" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="J79" t="s">
         <v>15</v>
@@ -2770,10 +2822,10 @@
     </row>
     <row r="80" spans="3:10">
       <c r="C80" s="4" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="I80" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="J80" t="s">
         <v>15</v>
@@ -2781,10 +2833,10 @@
     </row>
     <row r="81" spans="3:10">
       <c r="C81" s="4" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="I81" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J81" t="s">
         <v>15</v>
@@ -2792,528 +2844,384 @@
     </row>
     <row r="82" spans="3:10">
       <c r="C82" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E82" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="I82" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="J82" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="3:10">
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>199</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="C83" s="4" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="I83" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="J83" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
-        <v>181</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C84" t="s">
-        <v>183</v>
-      </c>
-      <c r="F84" t="s">
-        <v>184</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="3:7">
-      <c r="C85" t="s">
-        <v>185</v>
-      </c>
-      <c r="F85" t="s">
-        <v>186</v>
-      </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="3:7">
-      <c r="C86" t="s">
-        <v>187</v>
-      </c>
-      <c r="E86" t="s">
-        <v>15</v>
-      </c>
-      <c r="F86" t="s">
-        <v>188</v>
+    <row r="84" spans="3:10">
+      <c r="C84" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" t="s">
+        <v>204</v>
+      </c>
+      <c r="J84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10">
+      <c r="C85" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I85" t="s">
+        <v>206</v>
+      </c>
+      <c r="J85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8">
+      <c r="C86" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="G86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="3:7">
-      <c r="C87" t="s">
-        <v>189</v>
-      </c>
-      <c r="E87" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" t="s">
-        <v>190</v>
+        <v>208</v>
+      </c>
+      <c r="H86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8">
+      <c r="C87" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="G87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" t="s">
-        <v>191</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D88" t="s">
-        <v>194</v>
-      </c>
-      <c r="E88" t="s">
-        <v>15</v>
+        <v>210</v>
+      </c>
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10">
+      <c r="C88" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I88" t="s">
+        <v>212</v>
       </c>
       <c r="J88" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="3:5">
-      <c r="C89" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D89" t="s">
-        <v>196</v>
-      </c>
-      <c r="E89" t="s">
+    <row r="89" spans="3:8">
+      <c r="C89" t="s">
+        <v>213</v>
+      </c>
+      <c r="G89" t="s">
+        <v>214</v>
+      </c>
+      <c r="H89" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="90" spans="3:10">
       <c r="C90" s="4" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="I90" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="J90" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="3:10">
-      <c r="C91" s="4" t="s">
-        <v>199</v>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>217</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F91" t="s">
+        <v>220</v>
       </c>
       <c r="I91" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="J91" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="3:10">
-      <c r="C92" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="I92" t="s">
-        <v>202</v>
-      </c>
-      <c r="J92" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="3:10">
-      <c r="C93" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="I93" t="s">
-        <v>204</v>
-      </c>
-      <c r="J93" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="3:10">
-      <c r="C94" s="4" t="s">
-        <v>205</v>
+    <row r="92" spans="3:6">
+      <c r="C92" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F92" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7">
+      <c r="C93" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F93" t="s">
+        <v>225</v>
+      </c>
+      <c r="G93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9">
+      <c r="C94" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H94" t="s">
+        <v>227</v>
       </c>
       <c r="I94" t="s">
-        <v>206</v>
-      </c>
-      <c r="J94" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" t="s">
-        <v>207</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="I95" t="s">
-        <v>210</v>
-      </c>
-      <c r="J95" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="3:10">
-      <c r="C96" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D96" t="s">
-        <v>15</v>
-      </c>
-      <c r="I96" t="s">
-        <v>212</v>
-      </c>
-      <c r="J96" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="3:10">
-      <c r="C97" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I97" t="s">
-        <v>214</v>
-      </c>
-      <c r="J97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5">
+      <c r="C95" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D95" t="s">
+        <v>229</v>
+      </c>
+      <c r="E95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8">
+      <c r="C96" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G96" t="s">
+        <v>231</v>
+      </c>
+      <c r="H96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5">
+      <c r="C97" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D97" t="s">
+        <v>233</v>
+      </c>
+      <c r="E97" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="98" spans="3:8">
-      <c r="C98" s="4" t="s">
-        <v>215</v>
+      <c r="C98" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" t="s">
+        <v>235</v>
       </c>
       <c r="G98" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="H98" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="3:8">
-      <c r="C99" s="4" t="s">
-        <v>217</v>
+    <row r="99" spans="3:7">
+      <c r="C99" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F99" t="s">
+        <v>238</v>
       </c>
       <c r="G99" t="s">
-        <v>218</v>
-      </c>
-      <c r="H99" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="3:10">
-      <c r="C100" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="I100" t="s">
-        <v>220</v>
-      </c>
-      <c r="J100" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="3:8">
-      <c r="C101" t="s">
-        <v>221</v>
-      </c>
-      <c r="G101" t="s">
-        <v>222</v>
-      </c>
-      <c r="H101" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="3:10">
-      <c r="C102" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I102" t="s">
-        <v>224</v>
-      </c>
-      <c r="J102" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" t="s">
-        <v>225</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F103" t="s">
-        <v>228</v>
-      </c>
-      <c r="I103" t="s">
-        <v>229</v>
-      </c>
-      <c r="J103" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="3:6">
-      <c r="C104" s="5" t="s">
-        <v>230</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5">
+      <c r="C100" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D100" t="s">
+        <v>240</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5">
+      <c r="C101" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D101" t="s">
+        <v>242</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7">
+      <c r="C102" t="s">
+        <v>243</v>
+      </c>
+      <c r="F102" t="s">
+        <v>244</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5">
+      <c r="C103" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D103" t="s">
+        <v>246</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>247</v>
+      </c>
+      <c r="B104" t="s">
+        <v>248</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="F104" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="105" spans="3:7">
-      <c r="C105" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F105" t="s">
-        <v>233</v>
-      </c>
-      <c r="G105" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="3:9">
+        <v>250</v>
+      </c>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5">
+      <c r="C105" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D105" t="s">
+        <v>252</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7">
       <c r="C106" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="H106" t="s">
-        <v>235</v>
-      </c>
-      <c r="I106" t="s">
+        <v>253</v>
+      </c>
+      <c r="F106" t="s">
+        <v>254</v>
+      </c>
+      <c r="G106" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="107" spans="3:5">
-      <c r="C107" s="5" t="s">
-        <v>236</v>
+      <c r="C107" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="D107" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="E107" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="3:8">
-      <c r="C108" s="5" t="s">
-        <v>238</v>
+    <row r="108" spans="3:7">
+      <c r="C108" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F108" t="s">
+        <v>258</v>
       </c>
       <c r="G108" t="s">
-        <v>239</v>
-      </c>
-      <c r="H108" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="109" spans="3:5">
       <c r="C109" s="5" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="D109" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="E109" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="3:8">
-      <c r="C110" s="5" t="s">
-        <v>242</v>
+    <row r="110" spans="3:5">
+      <c r="C110" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="D110" t="s">
-        <v>243</v>
-      </c>
-      <c r="G110" t="s">
-        <v>244</v>
-      </c>
-      <c r="H110" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="3:7">
-      <c r="C111" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F111" t="s">
-        <v>246</v>
-      </c>
-      <c r="G111" t="s">
+        <v>262</v>
+      </c>
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D111" t="s">
+        <v>265</v>
+      </c>
+      <c r="E111" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="112" spans="3:5">
-      <c r="C112" s="5" t="s">
-        <v>247</v>
+      <c r="C112" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="D112" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="E112" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="3:5">
-      <c r="C113" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D113" t="s">
-        <v>250</v>
-      </c>
-      <c r="E113" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="3:7">
-      <c r="C114" t="s">
-        <v>251</v>
-      </c>
-      <c r="F114" t="s">
-        <v>252</v>
-      </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="3:5">
-      <c r="C115" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D115" t="s">
-        <v>254</v>
-      </c>
-      <c r="E115" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" t="s">
-        <v>255</v>
-      </c>
-      <c r="B116" t="s">
-        <v>256</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="F116" t="s">
-        <v>258</v>
-      </c>
-      <c r="G116" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="3:5">
-      <c r="C117" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D117" t="s">
-        <v>260</v>
-      </c>
-      <c r="E117" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="3:7">
-      <c r="C118" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F118" t="s">
-        <v>262</v>
-      </c>
-      <c r="G118" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="3:5">
-      <c r="C119" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D119" t="s">
-        <v>264</v>
-      </c>
-      <c r="E119" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="3:7">
-      <c r="C120" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="F120" t="s">
-        <v>266</v>
-      </c>
-      <c r="G120" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="3:5">
-      <c r="C121" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D121" t="s">
-        <v>268</v>
-      </c>
-      <c r="E121" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122" spans="3:5">
-      <c r="C122" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D122" t="s">
-        <v>270</v>
-      </c>
-      <c r="E122" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5">
-      <c r="B123" t="s">
-        <v>271</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D123" t="s">
-        <v>273</v>
-      </c>
-      <c r="E123" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="3:5">
-      <c r="C124" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D124" t="s">
-        <v>275</v>
-      </c>
-      <c r="E124" t="s">
-        <v>15</v>
-      </c>
-    </row>
+    <row r="509" s="1" customFormat="1"/>
+    <row r="510" s="1" customFormat="1"/>
+    <row r="511" s="1" customFormat="1"/>
+    <row r="512" s="1" customFormat="1"/>
+    <row r="513" s="1" customFormat="1"/>
+    <row r="514" s="1" customFormat="1"/>
+    <row r="515" s="1" customFormat="1"/>
+    <row r="516" s="1" customFormat="1"/>
+    <row r="517" s="1" customFormat="1"/>
+    <row r="518" s="1" customFormat="1"/>
+    <row r="519" s="1" customFormat="1"/>
+    <row r="520" s="1" customFormat="1"/>
     <row r="521" s="1" customFormat="1"/>
     <row r="522" s="1" customFormat="1"/>
     <row r="523" s="1" customFormat="1"/>
@@ -3385,18 +3293,6 @@
     <row r="589" s="1" customFormat="1"/>
     <row r="590" s="1" customFormat="1"/>
     <row r="591" s="1" customFormat="1"/>
-    <row r="592" s="1" customFormat="1"/>
-    <row r="593" s="1" customFormat="1"/>
-    <row r="594" s="1" customFormat="1"/>
-    <row r="595" s="1" customFormat="1"/>
-    <row r="596" s="1" customFormat="1"/>
-    <row r="597" s="1" customFormat="1"/>
-    <row r="598" s="1" customFormat="1"/>
-    <row r="599" s="1" customFormat="1"/>
-    <row r="600" s="1" customFormat="1"/>
-    <row r="601" s="1" customFormat="1"/>
-    <row r="602" s="1" customFormat="1"/>
-    <row r="603" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
